--- a/ozon_returns/report/file.xlsx
+++ b/ozon_returns/report/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>артикул</t>
   </si>
@@ -23,25 +23,16 @@
     <t>кол-во</t>
   </si>
   <si>
-    <t>82402-к</t>
-  </si>
-  <si>
     <t>82401-ч</t>
   </si>
   <si>
-    <t>82402-з</t>
+    <t>82401-к</t>
+  </si>
+  <si>
+    <t>82402-ч</t>
   </si>
   <si>
     <t>82400-ч</t>
-  </si>
-  <si>
-    <t>82402-ч</t>
-  </si>
-  <si>
-    <t>7262-кп</t>
-  </si>
-  <si>
-    <t>82401-к</t>
   </si>
   <si>
     <t>82401-з</t>
@@ -400,10 +391,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,7 +416,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -433,103 +424,79 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="1">
+        <v>7280</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>7260</v>
+        <v>302</v>
       </c>
       <c r="B5" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>8910</v>
+      <c r="A6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="1">
+        <v>1940</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" s="1">
+        <v>7245</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>1940</v>
+        <v>8910</v>
       </c>
       <c r="B10" s="1">
-        <v>20</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
+      <c r="A12" s="1">
+        <v>7260</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>1840</v>
-      </c>
-      <c r="B13" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>6210</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>7280</v>
-      </c>
-      <c r="B15" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
